--- a/Results-Generation/subj0/results_Delta.xlsx
+++ b/Results-Generation/subj0/results_Delta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Layers Number</t>
   </si>
@@ -77,21 +77,6 @@
   </si>
   <si>
     <t>Noise</t>
-  </si>
-  <si>
-    <t>blink</t>
-  </si>
-  <si>
-    <t>templerun</t>
-  </si>
-  <si>
-    <t>sudoku</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>wordsearch</t>
   </si>
 </sst>
 </file>
@@ -449,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,331 +505,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.01</v>
-      </c>
-      <c r="P2">
-        <v>0.01</v>
-      </c>
-      <c r="Q2">
-        <v>-2.38674173239497</v>
-      </c>
-      <c r="R2">
-        <v>3.015590710084108</v>
-      </c>
-      <c r="S2">
-        <v>-7.749141512766565</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.01</v>
-      </c>
-      <c r="P3">
-        <v>0.01</v>
-      </c>
-      <c r="Q3">
-        <v>-3.421937510185471</v>
-      </c>
-      <c r="R3">
-        <v>0.9503570571686883</v>
-      </c>
-      <c r="S3">
-        <v>-6.145775116124488</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2.5</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.01</v>
-      </c>
-      <c r="P4">
-        <v>0.01</v>
-      </c>
-      <c r="Q4">
-        <v>-0.5034321687903917</v>
-      </c>
-      <c r="R4">
-        <v>9.417598381703865</v>
-      </c>
-      <c r="S4">
-        <v>2.880666162454715</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.01</v>
-      </c>
-      <c r="P5">
-        <v>0.01</v>
-      </c>
-      <c r="Q5">
-        <v>-0.4399143030441696</v>
-      </c>
-      <c r="R5">
-        <v>13.93598325747856</v>
-      </c>
-      <c r="S5">
-        <v>0.4764229273247435</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2.5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0.01</v>
-      </c>
-      <c r="P6">
-        <v>0.01</v>
-      </c>
-      <c r="Q6">
-        <v>-0.620352801456369</v>
-      </c>
-      <c r="R6">
-        <v>13.21534373414609</v>
-      </c>
-      <c r="S6">
-        <v>4.251072181405114</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
